--- a/tests/samples/test.xlsx
+++ b/tests/samples/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonScript\xlsx_validator\tests\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5278B9C-FD95-496F-B06C-65E8A752E3C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="12696"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="www.btsj5.com_4th_Oct_2021" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Image</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -45,11 +46,15 @@
     <t>DateValue</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>OptionalText</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -718,7 +723,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1006,11 +1017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1019,9 +1030,10 @@
     <col min="2" max="2" width="13.5546875" customWidth="1"/>
     <col min="3" max="3" width="13.77734375" customWidth="1"/>
     <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1034,8 +1046,11 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1452</v>
       </c>
@@ -1043,7 +1058,7 @@
         <v>44352</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1054,7 +1069,7 @@
         <v>44353</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1065,7 +1080,7 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="82.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
